--- a/.github/assets/metric_names.xlsx
+++ b/.github/assets/metric_names.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Final" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="289">
   <si>
     <t>1</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Explained Variance Score</t>
   </si>
   <si>
-    <t>Greater is better (Best = 1), Range=(-inf, 1.0]</t>
-  </si>
-  <si>
     <t>****</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t>Nash-Sutcliffe Efficiency Coefficient</t>
   </si>
   <si>
-    <t>Greater is better (Best = 1), Range=(-inf, 1]</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
@@ -186,9 +180,6 @@
     <t>Normalized Nash-Sutcliffe Efficiency Coefficient</t>
   </si>
   <si>
-    <t>Greater is better (Best = 1), Range=[0, 1]</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
@@ -207,9 +198,6 @@
     <t>Pearson’s Correlation Coefficient</t>
   </si>
   <si>
-    <t>Greater is better (Best = 1), Range=[-1, 1]</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -222,9 +210,6 @@
     <t>20</t>
   </si>
   <si>
-    <t>R2s</t>
-  </si>
-  <si>
     <t>(Pearson’s Correlation Index) ^ 2</t>
   </si>
   <si>
@@ -303,9 +288,6 @@
     <t>Prediction of Change in Direction</t>
   </si>
   <si>
-    <t>Greater is better (Best = 1.0), Range=[0, 1]</t>
-  </si>
-  <si>
     <t>29</t>
   </si>
   <si>
@@ -345,9 +327,6 @@
     <t>Variance Accounted For</t>
   </si>
   <si>
-    <t>Greater is better (Best = 100%), Range=(-inf, 100%]</t>
-  </si>
-  <si>
     <t>33</t>
   </si>
   <si>
@@ -447,9 +426,6 @@
     <t>Covariance</t>
   </si>
   <si>
-    <t>Greater is better (No best value), Range=(-inf, +inf)</t>
-  </si>
-  <si>
     <t>44</t>
   </si>
   <si>
@@ -459,9 +435,6 @@
     <t>Correlation</t>
   </si>
   <si>
-    <t>Greater is better (Best = 1), Range=[-1, +1]</t>
-  </si>
-  <si>
     <t>45</t>
   </si>
   <si>
@@ -471,9 +444,6 @@
     <t>Efficiency Coefficient</t>
   </si>
   <si>
-    <t>Greater is better (Best = 1), Range=(-inf, +1]</t>
-  </si>
-  <si>
     <t>46</t>
   </si>
   <si>
@@ -501,9 +471,6 @@
     <t>Precision Score</t>
   </si>
   <si>
-    <t>Higher is better (Best = 1), Range = [0, 1]</t>
-  </si>
-  <si>
     <t>NPV</t>
   </si>
   <si>
@@ -552,33 +519,18 @@
     <t>Matthews Correlation Coefficient</t>
   </si>
   <si>
-    <t>Higher is better (Best = 1), Range = [-1, +1]</t>
-  </si>
-  <si>
-    <t>HL</t>
-  </si>
-  <si>
-    <t>Hamming Loss</t>
-  </si>
-  <si>
     <t>CKS</t>
   </si>
   <si>
     <t>Cohen's kappa score</t>
   </si>
   <si>
-    <t>Higher is better (Best = +1), Range = [-1, +1]</t>
-  </si>
-  <si>
     <t>JSI</t>
   </si>
   <si>
     <t>Jaccard Similarity Coefficient</t>
   </si>
   <si>
-    <t>Higher is better (Best = +1), Range = [0, +1]</t>
-  </si>
-  <si>
     <t>GMS</t>
   </si>
   <si>
@@ -771,12 +723,6 @@
     <t>Sokal Sneath2 Score</t>
   </si>
   <si>
-    <t>Greater is better (No best value), Range=[0, inf)</t>
-  </si>
-  <si>
-    <t>Smaller is better (No best value), Range=(-inf, 0]</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -804,18 +750,6 @@
     <t>Bigger is better (No best value), Range=(-inf, +inf)</t>
   </si>
   <si>
-    <t>Higher is better (No best value), Range = [0, +inf)</t>
-  </si>
-  <si>
-    <t>Higher is better (Best = 1), Range=[-1, +1]</t>
-  </si>
-  <si>
-    <t>Higher is better (No best value), Range=(-inf, +inf)</t>
-  </si>
-  <si>
-    <t>Higher is better (No best value), Range = (-inf, +inf)</t>
-  </si>
-  <si>
     <t>LS</t>
   </si>
   <si>
@@ -846,27 +780,15 @@
     <t>Beale Index</t>
   </si>
   <si>
-    <t>Smaller is better (Best=0), Range = [0, +inf)</t>
-  </si>
-  <si>
     <t>R-squared Index</t>
   </si>
   <si>
-    <t>Higher is better (Best=1), Range = (-inf, 1]</t>
-  </si>
-  <si>
     <t>Density-based Clustering Validation Index</t>
   </si>
   <si>
-    <t>Lower is better (Best=0), Range = [0, 1]</t>
-  </si>
-  <si>
     <t>Hartigan Index</t>
   </si>
   <si>
-    <t>Lower is better (best=0), Range = [0, +inf)</t>
-  </si>
-  <si>
     <t>DHI</t>
   </si>
   <si>
@@ -891,9 +813,6 @@
     <t>Tau Score</t>
   </si>
   <si>
-    <t>Higher is better (Best = 1), Range = [-1, 1]</t>
-  </si>
-  <si>
     <t>TS</t>
   </si>
   <si>
@@ -913,6 +832,63 @@
   </si>
   <si>
     <t>Problem</t>
+  </si>
+  <si>
+    <t>PuS</t>
+  </si>
+  <si>
+    <t>RSQ/R2S</t>
+  </si>
+  <si>
+    <t>Bigger is better (Best = 1), Range=(-inf, 1.0]</t>
+  </si>
+  <si>
+    <t>Bigger is better (Best = 1), Range=(-inf, 1]</t>
+  </si>
+  <si>
+    <t>Bigger is better (Best = 1), Range=[0, 1]</t>
+  </si>
+  <si>
+    <t>Bigger is better (Best = 1), Range=[-1, 1]</t>
+  </si>
+  <si>
+    <t>Bigger is better (Best = 1.0), Range=[0, 1]</t>
+  </si>
+  <si>
+    <t>Bigger is better (Best = 100%), Range=(-inf, 100%]</t>
+  </si>
+  <si>
+    <t>Bigger is better (Best = 1), Range=[-1, +1]</t>
+  </si>
+  <si>
+    <t>Bigger is better (Best = 1), Range=(-inf, +1]</t>
+  </si>
+  <si>
+    <t>Bigger is better (Best = 1), Range = [0, 1]</t>
+  </si>
+  <si>
+    <t>Bigger is better (Best = +1), Range = [-1, +1]</t>
+  </si>
+  <si>
+    <t>Bigger is better (Best = +1), Range = [0, +1]</t>
+  </si>
+  <si>
+    <t>Bigger is better (No best value), Range = [0, +inf)</t>
+  </si>
+  <si>
+    <t>Bigger is better (Best=1), Range = (-inf, 1]</t>
+  </si>
+  <si>
+    <t>Bigger is better (No best value), Range = (-inf, +inf)</t>
+  </si>
+  <si>
+    <t>Bigger is better (Best = 1), Range = [-1, 1]</t>
+  </si>
+  <si>
+    <t>Bigger is better (Best=0), Range = [0, 1]</t>
+  </si>
+  <si>
+    <t>Bigger is better (best=0), Range = [0, +inf)</t>
   </si>
 </sst>
 </file>
@@ -1306,39 +1282,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.19921875" style="3" customWidth="1"/>
     <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="10.19921875" customWidth="1"/>
+    <col min="3" max="3" width="12.796875" customWidth="1"/>
     <col min="4" max="4" width="46.09765625" customWidth="1"/>
     <col min="5" max="5" width="50.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1350,1799 +1326,1799 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>50</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>54</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>54</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>61</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>61</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>66</v>
+        <v>271</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>54</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>50</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>50</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>50</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>50</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>93</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>107</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>54</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>54</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>54</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>141</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>145</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>149</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>149</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>176</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>181</v>
+        <v>281</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>184</v>
+        <v>282</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>184</v>
+        <v>282</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>184</v>
+        <v>282</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="B67" s="1">
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B68" s="1">
         <v>2</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B69" s="1">
         <v>3</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B70" s="1">
         <v>4</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B71" s="1">
         <v>5</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B72" s="1">
         <v>6</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B73" s="1">
         <v>7</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B74" s="1">
         <v>8</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B75" s="1">
         <v>9</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B76" s="1">
         <v>10</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B77" s="1">
         <v>11</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B78" s="1">
         <v>12</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B79" s="1">
         <v>13</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B80" s="1">
         <v>14</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B81" s="1">
         <v>15</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B82" s="1">
         <v>16</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B83" s="1">
         <v>17</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B84" s="1">
         <v>18</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B85" s="1">
         <v>19</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B86" s="1">
         <v>20</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B87" s="1">
         <v>21</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B88" s="1">
         <v>22</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B89" s="1">
         <v>23</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B90" s="1">
         <v>24</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B91" s="1">
         <v>25</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B92" s="1">
         <v>26</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B93" s="1">
         <v>27</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B94" s="1">
         <v>28</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B95" s="1">
         <v>29</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B96" s="1">
         <v>30</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B97" s="1">
         <v>31</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B98" s="1">
         <v>32</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B99" s="1">
         <v>33</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B100" s="1">
         <v>34</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B101" s="1">
         <v>35</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B102" s="1">
         <v>36</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B103" s="1">
         <v>37</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B104" s="1">
         <v>38</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>157</v>
+        <v>270</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B105" s="1">
         <v>39</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B106" s="1">
         <v>40</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A51:A64 A49 A65 A3:E48 B2:E2" numberStoredAsText="1"/>
+    <ignoredError sqref="A51:A64 A49 A65 A3:B48 B2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3152,7 +3128,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3165,16 +3141,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -3184,251 +3160,251 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>176</v>
+        <v>245</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>181</v>
+        <v>281</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>184</v>
+        <v>282</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>184</v>
+        <v>282</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>184</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -3445,10 +3421,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3458,452 +3434,469 @@
     <col min="4" max="4" width="46.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -3911,13 +3904,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -3925,13 +3918,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -3939,13 +3932,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -3953,13 +3946,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -3967,13 +3960,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -3981,13 +3974,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -3995,13 +3988,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>157</v>
+        <v>270</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -4009,13 +4002,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -4023,13 +4016,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -4040,10 +4033,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4053,21 +4046,21 @@
     <col min="4" max="4" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4078,1338 +4071,1134 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D35" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D44" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D45" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D46" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="D47" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>176</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>181</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>184</v>
-      </c>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>184</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>184</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>184</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>1</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>2</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>3</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <v>4</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>5</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>6</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>7</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>8</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>9</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>250</v>
-      </c>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>10</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>250</v>
-      </c>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>11</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>176</v>
-      </c>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>12</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>13</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>14</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>15</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>16</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>17</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>18</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>19</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>20</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>21</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>22</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>23</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
-        <v>24</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
-        <v>25</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
-        <v>26</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
-        <v>27</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>176</v>
-      </c>
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
-        <v>28</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
-        <v>29</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
-        <v>30</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
-        <v>31</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.github/assets/metric_names.xlsx
+++ b/.github/assets/metric_names.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Final" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="298">
   <si>
     <t>1</t>
   </si>
@@ -889,6 +889,33 @@
   </si>
   <si>
     <t>Bigger is better (best=0), Range = [0, +inf)</t>
+  </si>
+  <si>
+    <t>CEL</t>
+  </si>
+  <si>
+    <t>HL</t>
+  </si>
+  <si>
+    <t>KLDL</t>
+  </si>
+  <si>
+    <t>BSL</t>
+  </si>
+  <si>
+    <t>Smaller is better (Best = 0), Range=[0, +1]</t>
+  </si>
+  <si>
+    <t>Cross Entropy Loss</t>
+  </si>
+  <si>
+    <t>Hinge Loss</t>
+  </si>
+  <si>
+    <t>Kullback Leibler Divergence Loss</t>
+  </si>
+  <si>
+    <t>Brier Score Loss</t>
   </si>
 </sst>
 </file>
@@ -1280,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66:E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2405,30 +2432,30 @@
         <v>3</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>3</v>
+        <v>294</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B67" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>174</v>
+        <v>295</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>7</v>
@@ -2438,14 +2465,14 @@
       <c r="A68" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="1">
-        <v>2</v>
+      <c r="B68" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>177</v>
+        <v>291</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>178</v>
+        <v>296</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>7</v>
@@ -2455,51 +2482,51 @@
       <c r="A69" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="1">
-        <v>3</v>
+      <c r="B69" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>181</v>
+        <v>292</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>182</v>
+        <v>297</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>7</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="1">
-        <v>4</v>
+      <c r="B70" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>179</v>
+        <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>237</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>3</v>
+        <v>266</v>
       </c>
       <c r="B71" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>240</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2507,16 +2534,16 @@
         <v>3</v>
       </c>
       <c r="B72" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>239</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2524,16 +2551,16 @@
         <v>3</v>
       </c>
       <c r="B73" s="1">
+        <v>3</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2541,16 +2568,16 @@
         <v>3</v>
       </c>
       <c r="B74" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2558,16 +2585,16 @@
         <v>3</v>
       </c>
       <c r="B75" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2575,16 +2602,16 @@
         <v>3</v>
       </c>
       <c r="B76" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -2592,16 +2619,16 @@
         <v>3</v>
       </c>
       <c r="B77" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -2609,16 +2636,16 @@
         <v>3</v>
       </c>
       <c r="B78" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>247</v>
+        <v>175</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>248</v>
+        <v>176</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -2626,16 +2653,16 @@
         <v>3</v>
       </c>
       <c r="B79" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -2643,16 +2670,16 @@
         <v>3</v>
       </c>
       <c r="B80" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>256</v>
+        <v>191</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -2660,16 +2687,16 @@
         <v>3</v>
       </c>
       <c r="B81" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>258</v>
+        <v>193</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>252</v>
+        <v>194</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -2677,16 +2704,16 @@
         <v>3</v>
       </c>
       <c r="B82" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -2694,16 +2721,16 @@
         <v>3</v>
       </c>
       <c r="B83" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -2711,16 +2738,16 @@
         <v>3</v>
       </c>
       <c r="B84" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>196</v>
+        <v>251</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -2728,16 +2755,16 @@
         <v>3</v>
       </c>
       <c r="B85" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>197</v>
+        <v>258</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>198</v>
+        <v>252</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -2745,16 +2772,16 @@
         <v>3</v>
       </c>
       <c r="B86" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -2762,16 +2789,16 @@
         <v>3</v>
       </c>
       <c r="B87" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>201</v>
+        <v>257</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -2779,16 +2806,16 @@
         <v>3</v>
       </c>
       <c r="B88" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2796,13 +2823,13 @@
         <v>3</v>
       </c>
       <c r="B89" s="1">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>280</v>
@@ -2813,13 +2840,13 @@
         <v>3</v>
       </c>
       <c r="B90" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>280</v>
@@ -2830,13 +2857,13 @@
         <v>3</v>
       </c>
       <c r="B91" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>280</v>
@@ -2847,13 +2874,13 @@
         <v>3</v>
       </c>
       <c r="B92" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>280</v>
@@ -2864,13 +2891,13 @@
         <v>3</v>
       </c>
       <c r="B93" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>280</v>
@@ -2881,13 +2908,13 @@
         <v>3</v>
       </c>
       <c r="B94" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>280</v>
@@ -2898,16 +2925,16 @@
         <v>3</v>
       </c>
       <c r="B95" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -2915,13 +2942,13 @@
         <v>3</v>
       </c>
       <c r="B96" s="1">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>218</v>
+        <v>152</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>280</v>
@@ -2932,13 +2959,13 @@
         <v>3</v>
       </c>
       <c r="B97" s="1">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>280</v>
@@ -2949,16 +2976,16 @@
         <v>3</v>
       </c>
       <c r="B98" s="1">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -2966,16 +2993,16 @@
         <v>3</v>
       </c>
       <c r="B99" s="1">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -2983,13 +3010,13 @@
         <v>3</v>
       </c>
       <c r="B100" s="1">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>280</v>
@@ -3000,13 +3027,13 @@
         <v>3</v>
       </c>
       <c r="B101" s="1">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>280</v>
@@ -3017,16 +3044,16 @@
         <v>3</v>
       </c>
       <c r="B102" s="1">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -3034,16 +3061,16 @@
         <v>3</v>
       </c>
       <c r="B103" s="1">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -3051,13 +3078,13 @@
         <v>3</v>
       </c>
       <c r="B104" s="1">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>280</v>
@@ -3068,16 +3095,16 @@
         <v>3</v>
       </c>
       <c r="B105" s="1">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -3085,32 +3112,100 @@
         <v>3</v>
       </c>
       <c r="B106" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>3</v>
+      <c r="B107" s="1">
+        <v>37</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>3</v>
+        <v>231</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>3</v>
+        <v>232</v>
       </c>
       <c r="E107" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="1">
+        <v>38</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" s="1">
+        <v>39</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" s="1">
+        <v>40</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3125,10 +3220,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3409,9 +3504,63 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>293</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.github/assets/metric_names.xlsx
+++ b/.github/assets/metric_names.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Final" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="306">
   <si>
     <t>1</t>
   </si>
@@ -916,6 +916,30 @@
   </si>
   <si>
     <t>Brier Score Loss</t>
+  </si>
+  <si>
+    <t>MSEI</t>
+  </si>
+  <si>
+    <t>Mean Squared Error Index</t>
+  </si>
+  <si>
+    <t>ARS</t>
+  </si>
+  <si>
+    <t>Adjusted Rand Score</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>Gamma Score</t>
+  </si>
+  <si>
+    <t>Gplus Score</t>
   </si>
 </sst>
 </file>
@@ -1307,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66:E69"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2724,10 +2748,10 @@
         <v>13</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>249</v>
@@ -2741,10 +2765,10 @@
         <v>14</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>249</v>
@@ -2758,13 +2782,13 @@
         <v>15</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -2775,13 +2799,13 @@
         <v>16</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -2792,13 +2816,13 @@
         <v>17</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -2809,13 +2833,13 @@
         <v>18</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2826,13 +2850,13 @@
         <v>19</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2843,10 +2867,10 @@
         <v>20</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>280</v>
@@ -2860,10 +2884,10 @@
         <v>21</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>280</v>
@@ -2877,13 +2901,13 @@
         <v>22</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>203</v>
+        <v>300</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>204</v>
+        <v>301</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -2894,10 +2918,10 @@
         <v>23</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>280</v>
@@ -2911,10 +2935,10 @@
         <v>24</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>280</v>
@@ -2928,10 +2952,10 @@
         <v>25</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>280</v>
@@ -2945,10 +2969,10 @@
         <v>26</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>280</v>
@@ -2962,10 +2986,10 @@
         <v>27</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>212</v>
+        <v>148</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>280</v>
@@ -2979,10 +3003,10 @@
         <v>28</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>280</v>
@@ -2996,13 +3020,13 @@
         <v>29</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -3013,10 +3037,10 @@
         <v>30</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>280</v>
@@ -3030,13 +3054,13 @@
         <v>31</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -3047,13 +3071,13 @@
         <v>32</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -3064,13 +3088,13 @@
         <v>33</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -3081,13 +3105,13 @@
         <v>34</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -3098,13 +3122,13 @@
         <v>35</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -3115,10 +3139,10 @@
         <v>36</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>280</v>
@@ -3132,10 +3156,10 @@
         <v>37</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>280</v>
@@ -3149,10 +3173,10 @@
         <v>38</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>280</v>
@@ -3166,13 +3190,13 @@
         <v>39</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -3183,29 +3207,97 @@
         <v>40</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>3</v>
+      <c r="B111" s="1">
+        <v>41</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>3</v>
+        <v>264</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>3</v>
+        <v>265</v>
       </c>
       <c r="E111" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" s="1">
+        <v>42</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="1">
+        <v>43</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" s="1">
+        <v>44</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3222,8 +3314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3570,10 +3662,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3782,10 +3874,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>249</v>
@@ -3797,10 +3889,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>249</v>
@@ -3812,13 +3904,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -3827,13 +3919,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -3842,13 +3934,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -3857,27 +3949,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>283</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3885,10 +3978,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>280</v>
@@ -3899,10 +3992,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>280</v>
@@ -3913,13 +4006,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>203</v>
+        <v>300</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>204</v>
+        <v>301</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3927,10 +4020,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>280</v>
@@ -3941,10 +4034,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>280</v>
@@ -3955,10 +4048,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>280</v>
@@ -3969,10 +4062,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>280</v>
@@ -3983,10 +4076,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>212</v>
+        <v>148</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>280</v>
@@ -3997,10 +4090,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>280</v>
@@ -4011,13 +4104,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -4025,10 +4118,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>280</v>
@@ -4039,13 +4132,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -4053,13 +4146,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -4067,13 +4160,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -4081,13 +4174,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -4095,13 +4188,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -4109,10 +4202,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>280</v>
@@ -4123,10 +4216,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>280</v>
@@ -4137,10 +4230,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>280</v>
@@ -4151,13 +4244,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -4165,13 +4258,69 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D43" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4184,7 +4333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
